--- a/SchedulingData/dynamic10/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_1.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>212.46</v>
+        <v>242.4</v>
       </c>
       <c r="D2" t="n">
-        <v>259.12</v>
+        <v>306.38</v>
       </c>
       <c r="E2" t="n">
-        <v>14.268</v>
+        <v>15.412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.1</v>
+        <v>213.16</v>
       </c>
       <c r="D3" t="n">
-        <v>288.7</v>
+        <v>271.58</v>
       </c>
       <c r="E3" t="n">
-        <v>12.16</v>
+        <v>13.512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>263.82</v>
+        <v>218.34</v>
       </c>
       <c r="D4" t="n">
-        <v>291.42</v>
+        <v>270.36</v>
       </c>
       <c r="E4" t="n">
-        <v>14.508</v>
+        <v>13.624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>291.42</v>
+        <v>270.36</v>
       </c>
       <c r="D5" t="n">
-        <v>344.98</v>
+        <v>310.08</v>
       </c>
       <c r="E5" t="n">
-        <v>11.752</v>
+        <v>11.292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>259.12</v>
+        <v>240.24</v>
       </c>
       <c r="D6" t="n">
-        <v>332.92</v>
+        <v>301.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.968</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>344.98</v>
+        <v>301.9</v>
       </c>
       <c r="D7" t="n">
-        <v>384.14</v>
+        <v>337.68</v>
       </c>
       <c r="E7" t="n">
-        <v>8.476000000000001</v>
+        <v>7.532</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>238.46</v>
+        <v>306.38</v>
       </c>
       <c r="D8" t="n">
-        <v>306.3</v>
+        <v>339.18</v>
       </c>
       <c r="E8" t="n">
-        <v>12.94</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>202.8</v>
+        <v>339.18</v>
       </c>
       <c r="D9" t="n">
-        <v>251.98</v>
+        <v>392.22</v>
       </c>
       <c r="E9" t="n">
-        <v>13.472</v>
+        <v>10.068</v>
       </c>
     </row>
     <row r="10">
@@ -618,112 +618,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>306.3</v>
+        <v>392.22</v>
       </c>
       <c r="D10" t="n">
-        <v>365.38</v>
+        <v>427.72</v>
       </c>
       <c r="E10" t="n">
-        <v>10.132</v>
+        <v>7.648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>288.7</v>
+        <v>427.72</v>
       </c>
       <c r="D11" t="n">
-        <v>339.44</v>
+        <v>470.62</v>
       </c>
       <c r="E11" t="n">
-        <v>9.196</v>
+        <v>5.488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>339.44</v>
+        <v>271.58</v>
       </c>
       <c r="D12" t="n">
-        <v>399.4</v>
+        <v>306.2</v>
       </c>
       <c r="E12" t="n">
-        <v>6.82</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>249.68</v>
+        <v>257.58</v>
       </c>
       <c r="D13" t="n">
-        <v>292.48</v>
+        <v>331.9</v>
       </c>
       <c r="E13" t="n">
-        <v>13.392</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>384.14</v>
+        <v>470.62</v>
       </c>
       <c r="D14" t="n">
-        <v>436.94</v>
+        <v>528.14</v>
       </c>
       <c r="E14" t="n">
-        <v>6.316</v>
+        <v>2.836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>332.92</v>
+        <v>233.94</v>
       </c>
       <c r="D15" t="n">
-        <v>374.16</v>
+        <v>287.14</v>
       </c>
       <c r="E15" t="n">
-        <v>7.484</v>
+        <v>14.436</v>
       </c>
     </row>
     <row r="16">
@@ -732,245 +732,245 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>436.94</v>
+        <v>337.68</v>
       </c>
       <c r="D16" t="n">
-        <v>482.44</v>
+        <v>391.78</v>
       </c>
       <c r="E16" t="n">
-        <v>3.896</v>
+        <v>4.232</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>251.98</v>
+        <v>331.9</v>
       </c>
       <c r="D17" t="n">
-        <v>302.94</v>
+        <v>366.96</v>
       </c>
       <c r="E17" t="n">
-        <v>10.976</v>
+        <v>7.584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>374.16</v>
+        <v>366.96</v>
       </c>
       <c r="D18" t="n">
-        <v>425.52</v>
+        <v>413.4</v>
       </c>
       <c r="E18" t="n">
-        <v>4.468</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>302.94</v>
+        <v>310.08</v>
       </c>
       <c r="D19" t="n">
-        <v>342.56</v>
+        <v>375.94</v>
       </c>
       <c r="E19" t="n">
-        <v>8.644</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>342.56</v>
+        <v>375.94</v>
       </c>
       <c r="D20" t="n">
-        <v>408.8</v>
+        <v>432.54</v>
       </c>
       <c r="E20" t="n">
-        <v>5.62</v>
+        <v>6.716</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>365.38</v>
+        <v>413.4</v>
       </c>
       <c r="D21" t="n">
-        <v>398.18</v>
+        <v>466.06</v>
       </c>
       <c r="E21" t="n">
-        <v>7.492</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>292.48</v>
+        <v>466.06</v>
       </c>
       <c r="D22" t="n">
-        <v>348.36</v>
+        <v>544.91</v>
       </c>
       <c r="E22" t="n">
-        <v>10.944</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>348.36</v>
+        <v>287.14</v>
       </c>
       <c r="D23" t="n">
-        <v>392.16</v>
+        <v>331.3</v>
       </c>
       <c r="E23" t="n">
-        <v>7.704</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>392.16</v>
+        <v>391.78</v>
       </c>
       <c r="D24" t="n">
-        <v>431.68</v>
+        <v>478.78</v>
       </c>
       <c r="E24" t="n">
-        <v>5.372</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>398.18</v>
+        <v>306.2</v>
       </c>
       <c r="D25" t="n">
-        <v>465.2</v>
+        <v>355.38</v>
       </c>
       <c r="E25" t="n">
-        <v>4.9</v>
+        <v>8.372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>399.4</v>
+        <v>432.54</v>
       </c>
       <c r="D26" t="n">
-        <v>457.22</v>
+        <v>486.04</v>
       </c>
       <c r="E26" t="n">
-        <v>4.168</v>
+        <v>3.476</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>431.68</v>
+        <v>355.38</v>
       </c>
       <c r="D27" t="n">
-        <v>490.98</v>
+        <v>404.34</v>
       </c>
       <c r="E27" t="n">
-        <v>2.072</v>
+        <v>5.616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>465.2</v>
+        <v>331.3</v>
       </c>
       <c r="D28" t="n">
-        <v>497.3</v>
+        <v>410</v>
       </c>
       <c r="E28" t="n">
-        <v>2.82</v>
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>
